--- a/Data_2x2_same_lambda.xlsx
+++ b/Data_2x2_same_lambda.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Starting State</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.6989808 +0.j -0.71514044+0.j]</t>
+    <t xml:space="preserve">[ 0.70986195+0.j -0.70434084+0.j]</t>
   </si>
   <si>
     <t xml:space="preserve">0.54030231+0.j </t>
@@ -254,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -276,6 +276,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -334,7 +340,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -351,6 +357,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,11 +369,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,11 +456,11 @@
   </sheetPr>
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H85" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O101" activeCellId="0" sqref="O101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="26.79"/>
@@ -574,14 +584,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="2"/>
@@ -589,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M6" s="2"/>
@@ -611,12 +621,12 @@
         <v>0</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="2"/>
@@ -624,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="2"/>
@@ -689,7 +699,7 @@
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="2"/>
@@ -721,7 +731,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -732,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="2"/>
@@ -790,14 +800,14 @@
         <v>0</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2"/>
@@ -805,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="2"/>
@@ -829,10 +839,10 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="2"/>
@@ -840,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M15" s="2"/>
@@ -902,10 +912,10 @@
         <v>21</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="2"/>
@@ -913,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="2"/>
@@ -937,10 +947,10 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="2"/>
@@ -948,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M19" s="2"/>
@@ -1006,14 +1016,14 @@
         <v>2</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="2"/>
@@ -1021,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="M22" s="2"/>
@@ -1043,12 +1053,12 @@
         <v>1</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="2"/>
@@ -1056,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="M23" s="2"/>
@@ -1072,7 +1082,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1091,7 +1101,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1118,7 +1128,7 @@
         <v>27</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -1129,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="M26" s="2"/>
@@ -1149,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="2"/>
       <c r="G27" s="3" t="s">
         <v>29</v>
@@ -1178,7 +1188,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1197,7 +1207,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1220,14 +1230,14 @@
         <v>2</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="2"/>
@@ -1235,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M30" s="2"/>
@@ -1255,12 +1265,12 @@
         <v>3</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I31" s="2"/>
@@ -1268,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="2"/>
@@ -1284,7 +1294,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1303,7 +1313,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1385,13 +1395,13 @@
       <c r="Q36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="6" t="n">
+      <c r="B37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="2"/>
@@ -1399,10 +1409,10 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="6" t="n">
+      <c r="B38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7" t="n">
         <v>2</v>
       </c>
       <c r="E38" s="2"/>
@@ -1411,29 +1421,29 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="E39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="E40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="6" t="n">
+      <c r="B41" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="C41" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G41" s="2"/>
@@ -1441,10 +1451,10 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="6" t="n">
+      <c r="B42" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C42" s="6" t="n">
+      <c r="C42" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="2"/>
@@ -1453,29 +1463,29 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="E43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="E44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="L44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="B45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G45" s="2"/>
@@ -1483,19 +1493,19 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="6" t="n">
+      <c r="B46" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="6" t="n">
+      <c r="C46" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="6"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="L46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="5"/>
+      <c r="E47" s="6"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="L47" s="2"/>
@@ -1517,7 +1527,7 @@
         <v>-1</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G49" s="2"/>
@@ -1563,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G53" s="2"/>
@@ -1609,7 +1619,7 @@
         <v>1.5</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G57" s="2"/>
@@ -1729,7 +1739,7 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="5"/>
+      <c r="E67" s="6"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="L67" s="2"/>
@@ -1751,20 +1761,20 @@
         <v>3</v>
       </c>
       <c r="D69" s="2"/>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="5" t="s">
         <v>41</v>
       </c>
       <c r="J69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2"/>
-      <c r="L69" s="4" t="s">
+      <c r="L69" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -1783,7 +1793,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -1793,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="2"/>
-      <c r="L70" s="4" t="s">
+      <c r="L70" s="5" t="s">
         <v>41</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -1826,20 +1836,20 @@
         <v>3</v>
       </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="5" t="s">
         <v>46</v>
       </c>
       <c r="J73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2"/>
-      <c r="L73" s="4" t="s">
+      <c r="L73" s="5" t="s">
         <v>45</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -1858,17 +1868,17 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J74" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K74" s="2"/>
-      <c r="L74" s="4" t="s">
+      <c r="L74" s="5" t="s">
         <v>46</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -1876,7 +1886,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="5"/>
+      <c r="E75" s="6"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="L75" s="2"/>
@@ -1899,11 +1909,11 @@
         <v>3</v>
       </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -1913,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="2"/>
-      <c r="L77" s="4" t="s">
+      <c r="L77" s="5" t="s">
         <v>50</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -1933,17 +1943,17 @@
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="5" t="s">
         <v>53</v>
       </c>
       <c r="J78" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2"/>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="5" t="s">
         <v>46</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -1974,25 +1984,25 @@
       <c r="B81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F81" s="2"/>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J81" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2"/>
-      <c r="L81" s="4" t="s">
+      <c r="L81" s="5" t="s">
         <v>56</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -2003,7 +2013,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C82" s="2" t="n">
@@ -2012,17 +2022,17 @@
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="5" t="s">
         <v>59</v>
       </c>
       <c r="J82" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K82" s="2"/>
-      <c r="L82" s="4" t="s">
+      <c r="L82" s="5" t="s">
         <v>57</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -2030,7 +2040,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="7"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2050,28 +2060,28 @@
       <c r="L84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F85" s="2"/>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="5" t="s">
         <v>62</v>
       </c>
       <c r="J85" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2"/>
-      <c r="L85" s="4" t="s">
+      <c r="L85" s="5" t="s">
         <v>61</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -2082,26 +2092,26 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="5" t="s">
         <v>61</v>
       </c>
       <c r="J86" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K86" s="2"/>
-      <c r="L86" s="4" t="s">
+      <c r="L86" s="5" t="s">
         <v>62</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -2136,21 +2146,21 @@
         <v>1.5</v>
       </c>
       <c r="D89" s="2"/>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="4" t="s">
+      <c r="G89" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H89" s="5" t="s">
         <v>65</v>
       </c>
       <c r="J89" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2"/>
-      <c r="L89" s="4" t="s">
+      <c r="L89" s="5" t="s">
         <v>64</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -2170,17 +2180,17 @@
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" s="5" t="s">
         <v>64</v>
       </c>
       <c r="J90" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K90" s="2"/>
-      <c r="L90" s="4" t="s">
+      <c r="L90" s="5" t="s">
         <v>65</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -2215,21 +2225,21 @@
         <v>1.5</v>
       </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="4" t="s">
+      <c r="G93" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="5" t="s">
         <v>69</v>
       </c>
       <c r="J93" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2"/>
-      <c r="L93" s="4" t="s">
+      <c r="L93" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -2249,17 +2259,17 @@
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="4" t="s">
+      <c r="G94" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H94" s="5" t="s">
         <v>71</v>
       </c>
       <c r="J94" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K94" s="2"/>
-      <c r="L94" s="4" t="s">
+      <c r="L94" s="5" t="s">
         <v>69</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -2277,7 +2287,7 @@
       <c r="L95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="5"/>
+      <c r="E96" s="6"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="L96" s="2"/>
@@ -2291,20 +2301,20 @@
         <v>0.5</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G97" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H97" s="5" t="s">
         <v>73</v>
       </c>
       <c r="J97" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2"/>
-      <c r="L97" s="4" t="s">
+      <c r="L97" s="5" t="s">
         <v>72</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -2324,17 +2334,17 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-      <c r="G98" s="4" t="s">
+      <c r="G98" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" s="5" t="s">
         <v>72</v>
       </c>
       <c r="J98" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K98" s="2"/>
-      <c r="L98" s="4" t="s">
+      <c r="L98" s="5" t="s">
         <v>73</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -2351,229 +2361,229 @@
       <c r="H99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="5"/>
+      <c r="E100" s="6"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="5"/>
+      <c r="E101" s="6"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="5"/>
+      <c r="E102" s="6"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="5"/>
+      <c r="E103" s="6"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="5"/>
+      <c r="E104" s="6"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="5"/>
+      <c r="E105" s="6"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="5"/>
+      <c r="E106" s="6"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="5"/>
+      <c r="E107" s="6"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="5"/>
+      <c r="E108" s="6"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="5"/>
+      <c r="E109" s="6"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="5"/>
+      <c r="E110" s="6"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="5"/>
+      <c r="E111" s="6"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="5"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="5"/>
+      <c r="E113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="5"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="5"/>
+      <c r="E115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="5"/>
+      <c r="E116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="5"/>
+      <c r="E117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="5"/>
+      <c r="E118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="5"/>
+      <c r="E119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="5"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="5"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="5"/>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="5"/>
+      <c r="E123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="5"/>
+      <c r="E124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="5"/>
+      <c r="E125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="5"/>
+      <c r="E126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="5"/>
+      <c r="E127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="5"/>
+      <c r="E128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="5"/>
+      <c r="E129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="5"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="5"/>
+      <c r="E131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="5"/>
+      <c r="E132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="5"/>
+      <c r="E133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="5"/>
+      <c r="E134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="5"/>
+      <c r="E135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="5"/>
+      <c r="E136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="5"/>
+      <c r="E137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="5"/>
+      <c r="E138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="5"/>
+      <c r="E139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="5"/>
+      <c r="E140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="5"/>
+      <c r="E141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="5"/>
+      <c r="E142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="5"/>
+      <c r="E143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="5"/>
+      <c r="E144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="5"/>
+      <c r="E145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="5"/>
+      <c r="E146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="5"/>
+      <c r="E147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="5"/>
+      <c r="E148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="5"/>
+      <c r="E149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="5"/>
+      <c r="E150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="5"/>
+      <c r="E151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="5"/>
+      <c r="E152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="5"/>
+      <c r="E153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="5"/>
+      <c r="E154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="5"/>
+      <c r="E155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="5"/>
+      <c r="E156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="5"/>
+      <c r="E157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="5"/>
+      <c r="E158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="5"/>
+      <c r="E159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="5"/>
+      <c r="E160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="5"/>
+      <c r="E161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="5"/>
+      <c r="E162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="5"/>
+      <c r="E163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="5"/>
+      <c r="E164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="5"/>
+      <c r="E165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="5"/>
+      <c r="E166" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Data_2x2_same_lambda.xlsx
+++ b/Data_2x2_same_lambda.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="77">
   <si>
     <t xml:space="preserve">For Same Lambda</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">1/√2</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.09241764+0.05543586j, 0.09241764+0.05543586j]</t>
+    <t xml:space="preserve">[0.38205143+0.59500984j, 0.38205143+0.59500984j]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.71003388+0.j 0.70416751+0.j]</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">0.        -0.84147098j </t>
   </si>
   <si>
-    <t xml:space="preserve">[0.49733302+0.29832055j, 0.49733302+0.29832055j]</t>
+    <t xml:space="preserve">[0.38205143-0.59500984j, 0.38205143-0.59500984j]</t>
   </si>
   <si>
     <t xml:space="preserve">[1.+0.j 0.+0.j] </t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">0.        +0.j       </t>
   </si>
   <si>
-    <t xml:space="preserve">[0.49733302+0.29832055j, 0.09241764+0.05543586j</t>
+    <t xml:space="preserve">[0.38205143-0.59500984j, 0.38205143+0.59500984j]</t>
   </si>
   <si>
     <t xml:space="preserve">0.54030231+0.84147098j </t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">[0.+0.j 1.+0.j] </t>
   </si>
   <si>
-    <t xml:space="preserve">[0.09241764+0.05543586j, 0.49733302+0.29832055j]</t>
+    <t xml:space="preserve">[0.38205143+0.59500984j, 0.38205143-0.59500984j]</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.71003388+0.j -0.70416751+0.j] </t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">-0.7651474+0.4912955j </t>
   </si>
   <si>
-    <t xml:space="preserve">[0.11911988-0.18149723j, 0.11911988-0.18149723j]</t>
+    <t xml:space="preserve">[-0.70003041+0.09978692j, -0.70003041+0.09978692j]</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.44517647+0.j -0.89544286+0.j]</t>
@@ -112,12 +112,18 @@
     <t xml:space="preserve">-0.47757837+0.0338674j </t>
   </si>
   <si>
+    <t xml:space="preserve">[-0.63104529-0.52316624j, -0.12449693-0.55908804j]</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.30151312-0.82453729j </t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.9319494 +0.j -0.36258835+0.j] </t>
   </si>
   <si>
+    <t xml:space="preserve">[-0.12449693-0.55908804j, -0.63104529-0.52316624j]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hamiltonian is not Hermitian</t>
   </si>
   <si>
@@ -148,7 +154,7 @@
     <t xml:space="preserve">-0.12832006-0.05872664j </t>
   </si>
   <si>
-    <t xml:space="preserve">[0.62615733+0.18253959j, 0.62615733+0.18253959j]</t>
+    <t xml:space="preserve">[0.20057946-0.67806185j, 0.20057946-0.67806185j]</t>
   </si>
   <si>
     <t xml:space="preserve">0.41198225-0.90019763j</t>
@@ -163,7 +169,7 @@
     <t xml:space="preserve">-0.43542977+0.37607684j </t>
   </si>
   <si>
-    <t xml:space="preserve">[0.0222912 -0.21665549j, 0.33898575+0.12666187j]</t>
+    <t xml:space="preserve">[-0.84952995+0.4686961j, -0.0284757 -0.2404412j]</t>
   </si>
   <si>
     <t xml:space="preserve">0.39515905-0.71611204j </t>
@@ -178,7 +184,7 @@
     <t xml:space="preserve">-0.43542977+0.37607684j</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.01780173+0.00776025j, 0.15870368-0.2601715j ]</t>
+    <t xml:space="preserve">[-0.0284757 +0.77229416j, -0.84952995+0.06315687j]</t>
   </si>
   <si>
     <t xml:space="preserve">-0.76598701-0.28675954j </t>
@@ -211,7 +217,7 @@
     <t xml:space="preserve">-0.6597251 +0.73415557j</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.09503626-0.09385562j, 0.09503626-0.09385562j]</t>
+    <t xml:space="preserve">[-0.55094076+0.44324292j, -0.55094076+0.44324292j]</t>
   </si>
   <si>
     <t xml:space="preserve">0.06207773+0.03391322j</t>
@@ -220,7 +226,7 @@
     <t xml:space="preserve">-0.47822457+0.87538421j</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.09210722-0.0407076j, 0.09210722-0.0407076j]</t>
+    <t xml:space="preserve">[-0.29426025+0.64297038j, -0.29426025+0.64297038j]</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.50023602+0.j -0.8658891 +0.j] </t>
@@ -232,7 +238,7 @@
     <t xml:space="preserve">-0.53929658+0.74748193j</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.03068318-0.12375416j, 0.18623313+0.01693741j]</t>
+    <t xml:space="preserve">[-0.57129925+0.72636401j, -0.25351569+0.28590606j]</t>
   </si>
   <si>
     <t xml:space="preserve">0.18077125-0.3431497j</t>
@@ -244,7 +250,7 @@
     <t xml:space="preserve">0.22984885+0.42073549j</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.13507558+0.21036775j, 0.13507558+0.21036775j]</t>
+    <t xml:space="preserve">[0.70710678+0.j, 0.70710678+0.j]</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q166"/>
+  <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -469,6 +475,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="46.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="29.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,6 +562,9 @@
         <v>6</v>
       </c>
       <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -574,6 +584,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -611,6 +622,9 @@
         <v>12</v>
       </c>
       <c r="Q6" s="2"/>
+      <c r="R6" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
@@ -644,6 +658,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
+      <c r="R7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -663,6 +678,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -682,6 +698,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
@@ -719,6 +736,9 @@
         <v>15</v>
       </c>
       <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -752,6 +772,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -771,6 +792,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
@@ -790,6 +812,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
@@ -827,6 +850,9 @@
         <v>19</v>
       </c>
       <c r="Q14" s="2"/>
+      <c r="R14" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
@@ -860,6 +886,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
@@ -879,6 +906,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
@@ -898,6 +926,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
@@ -935,6 +964,9 @@
         <v>22</v>
       </c>
       <c r="Q18" s="2"/>
+      <c r="R18" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
@@ -968,6 +1000,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -987,6 +1020,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
@@ -1006,8 +1040,9 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="n">
         <v>1</v>
@@ -1043,6 +1078,9 @@
         <v>26</v>
       </c>
       <c r="Q22" s="2"/>
+      <c r="R22" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
@@ -1076,6 +1114,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
@@ -1095,6 +1134,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
@@ -1114,6 +1154,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
@@ -1147,8 +1188,13 @@
         <v>11</v>
       </c>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="Q26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
@@ -1165,7 +1211,7 @@
         <v>29</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="n">
@@ -1182,6 +1228,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
@@ -1201,6 +1248,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
@@ -1220,8 +1268,9 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -1231,11 +1280,11 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>29</v>
@@ -1246,15 +1295,20 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="Q30" s="2"/>
+      <c r="R30" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
@@ -1288,6 +1342,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
@@ -1307,6 +1362,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
+      <c r="R32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
@@ -1326,6 +1382,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
+      <c r="R33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
@@ -1337,7 +1394,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1351,6 +1408,9 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
+      <c r="R34" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
@@ -1374,6 +1434,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
@@ -1393,6 +1454,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="7" t="n">
@@ -1402,11 +1464,14 @@
         <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="L37" s="2"/>
+      <c r="R37" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="7" t="n">
@@ -1419,6 +1484,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="L38" s="2"/>
+      <c r="R38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="7"/>
@@ -1427,6 +1493,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="L39" s="2"/>
+      <c r="R39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7"/>
@@ -1435,6 +1502,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="L40" s="2"/>
+      <c r="R40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="7" t="n">
@@ -1444,11 +1512,14 @@
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="L41" s="2"/>
+      <c r="R41" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="7" t="n">
@@ -1461,6 +1532,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="L42" s="2"/>
+      <c r="R42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="7"/>
@@ -1469,6 +1541,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="L43" s="2"/>
+      <c r="R43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="7"/>
@@ -1477,6 +1550,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="L44" s="2"/>
+      <c r="R44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="7" t="n">
@@ -1486,11 +1560,14 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="L45" s="2"/>
+      <c r="R45" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
@@ -1503,12 +1580,14 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="L46" s="2"/>
+      <c r="R46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="6"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="L47" s="2"/>
+      <c r="R47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2"/>
@@ -1518,6 +1597,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="L48" s="2"/>
+      <c r="R48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="n">
@@ -1528,11 +1608,14 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="L49" s="2"/>
+      <c r="R49" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="n">
@@ -1546,6 +1629,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="L50" s="2"/>
+      <c r="R50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2"/>
@@ -1555,6 +1639,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="L51" s="2"/>
+      <c r="R51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2"/>
@@ -1564,6 +1649,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="L52" s="2"/>
+      <c r="R52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="n">
@@ -1574,11 +1660,14 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="L53" s="2"/>
+      <c r="R53" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="n">
@@ -1592,6 +1681,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="L54" s="2"/>
+      <c r="R54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2"/>
@@ -1601,6 +1691,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="L55" s="2"/>
+      <c r="R55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2"/>
@@ -1610,6 +1701,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="L56" s="2"/>
+      <c r="R56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="n">
@@ -1620,11 +1712,14 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="L57" s="2"/>
+      <c r="R57" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="n">
@@ -1638,6 +1733,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="L58" s="2"/>
+      <c r="R58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2"/>
@@ -1647,6 +1743,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="L59" s="2"/>
+      <c r="R59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
@@ -1657,36 +1754,41 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="L60" s="2"/>
+      <c r="R60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="L61" s="2"/>
+      <c r="R61" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="L62" s="2"/>
+      <c r="R62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
@@ -1697,6 +1799,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="L63" s="2"/>
+      <c r="R63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
@@ -1707,42 +1810,48 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="L64" s="2"/>
+      <c r="R64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="L65" s="2"/>
+      <c r="R65" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="L66" s="2"/>
+      <c r="R66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="6"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="L67" s="2"/>
+      <c r="R67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2"/>
@@ -1752,8 +1861,9 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="L68" s="2"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="n">
         <v>2</v>
       </c>
@@ -1765,23 +1875,26 @@
         <v>23</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,21 +1907,22 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="G70" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="R70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="2"/>
@@ -1818,6 +1932,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="L71" s="2"/>
+      <c r="R71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="2"/>
@@ -1827,8 +1942,9 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="L72" s="2"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="2" t="n">
         <v>8</v>
       </c>
@@ -1837,26 +1953,29 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,27 +1988,29 @@
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="G74" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J74" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="R74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="6"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="L75" s="2"/>
+      <c r="R75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2"/>
@@ -1900,8 +2021,9 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="L76" s="2"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="n">
         <v>0</v>
       </c>
@@ -1910,27 +2032,30 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J77" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,21 +2069,22 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J78" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="R78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2"/>
@@ -1969,6 +2095,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="L79" s="2"/>
+      <c r="R79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="2"/>
@@ -1979,42 +2106,46 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="L80" s="2"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J81" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="R81" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>0</v>
@@ -2023,21 +2154,22 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J82" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="R82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="8"/>
@@ -2048,6 +2180,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="L83" s="2"/>
+      <c r="R83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2"/>
@@ -2058,13 +2191,14 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="L84" s="2"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="5" t="s">
@@ -2072,51 +2206,55 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J85" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J86" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="R86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2"/>
@@ -2127,6 +2265,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="L87" s="2"/>
+      <c r="R87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2"/>
@@ -2137,8 +2276,9 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="L88" s="2"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R88" s="2"/>
+    </row>
+    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="n">
         <v>0.5</v>
       </c>
@@ -2151,23 +2291,26 @@
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J89" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R89" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,21 +2324,22 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J90" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="R90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2"/>
@@ -2206,6 +2350,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="L91" s="2"/>
+      <c r="R91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2"/>
@@ -2216,8 +2361,9 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="L92" s="2"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="n">
         <v>1.25</v>
       </c>
@@ -2226,27 +2372,30 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J93" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="R93" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,21 +2409,22 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J94" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="R94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2"/>
@@ -2285,14 +2435,16 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="L95" s="2"/>
+      <c r="R95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="6"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="L96" s="2"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R96" s="6"/>
+    </row>
+    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="n">
         <v>-0.5</v>
@@ -2305,23 +2457,26 @@
         <v>23</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J97" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R97" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,21 +2490,22 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="G98" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J98" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="R98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
